--- a/outputs/ML_Results/carown_LR_new/Clermont.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ9" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ7" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.161111278147315</v>
+        <v>2.91977941239301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01198563964040397</v>
+        <v>0.02020854018698176</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8632577245631321</v>
+        <v>-0.8836525202627834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2643258011435079</v>
+        <v>0.2511759660377603</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.682441887146491</v>
+        <v>-1.658292534450327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001197078869289488</v>
+        <v>0.0001950766152178553</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.402567722553439</v>
+        <v>-1.269960975940354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001750432245242901</v>
+        <v>0.005465805644036517</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.753864869516928</v>
+        <v>-1.717955301327796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001935507704939877</v>
+        <v>0.001773356918846869</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0514139496009831</v>
+        <v>0.02063679444222259</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8675035457187925</v>
+        <v>0.9485362906088662</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001064415696443928</v>
+        <v>0.0009722337068753616</v>
       </c>
       <c r="C8" t="n">
-        <v>1.453426644028098e-09</v>
+        <v>7.048020594797252e-09</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02014775843227736</v>
+        <v>-0.01529143487216724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004933938447630775</v>
+        <v>0.02814576229057139</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7995428375392215</v>
+        <v>0.9374037314912899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00390969231846749</v>
+        <v>0.0006257033175050727</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9335277055486227</v>
+        <v>1.007664095354128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001842603582055794</v>
+        <v>0.0004973160060871666</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3651701390486493</v>
+        <v>0.3406214698816832</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3037519688581589</v>
+        <v>0.3236299926925081</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001070441056024602</v>
+        <v>-4.26881883797294e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3224500823378375</v>
+        <v>0.6936836570081111</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.104751968115196e-07</v>
+        <v>-1.507768201921867e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2156558788422923</v>
+        <v>0.09046145218923519</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1575433318217457</v>
+        <v>-0.09356027058660131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1604783484123438</v>
+        <v>0.3829752554260589</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1598611808245542</v>
+        <v>0.1377436362800698</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01544916859183831</v>
+        <v>0.02294691547305563</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.325563551732611</v>
+        <v>-5.12196525336998</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6664948797606459</v>
+        <v>0.4958629284127962</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01517415520328027</v>
+        <v>-0.01985878809752055</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1088703189767866</v>
+        <v>0.03378864884664836</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004902781682770445</v>
+        <v>-0.007309094848754527</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4044204035014805</v>
+        <v>0.227564989141302</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.06512160208954006</v>
+        <v>0.1303250816089186</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9521669418547258</v>
+        <v>0.9021139803612203</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04106597859942709</v>
+        <v>1.600557203597112</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9841818080176622</v>
+        <v>0.4437114345029356</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006987252136572564</v>
+        <v>0.0006277950442059815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00875322306817124</v>
+        <v>0.01885601983404929</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.798723751099642</v>
+        <v>2.965739131530457</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02586833449966199</v>
+        <v>0.01895014120932965</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.009549080308797</v>
+        <v>-0.2801659687415298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1666873936748611</v>
+        <v>0.7367477483065054</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.51224002240604</v>
+        <v>-1.938515504509885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004959212989410534</v>
+        <v>1.951193049142829e-05</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.160126750501417</v>
+        <v>-1.677374849232944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009372699882959613</v>
+        <v>0.0002883801997917914</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.763943635990862</v>
+        <v>-1.711805216210918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008022044156205256</v>
+        <v>0.001465065438236873</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09560897395284158</v>
+        <v>-0.210961603071576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7464389914400611</v>
+        <v>0.4966723216900156</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001237246160192059</v>
+        <v>0.001051952049913179</v>
       </c>
       <c r="C8" t="n">
-        <v>1.122262352538449e-11</v>
+        <v>1.842988830777967e-09</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01635266966142734</v>
+        <v>-0.01523942611568955</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02150018982826762</v>
+        <v>0.03251725927155604</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9923707120725612</v>
+        <v>0.8509577709608712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003735162195552527</v>
+        <v>0.00235849425649131</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7255329714989637</v>
+        <v>1.005539855621983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01412214720186235</v>
+        <v>0.0007781230081573885</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.349231378741933</v>
+        <v>0.3172386620128906</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3210328003148386</v>
+        <v>0.3687187912908578</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.388103692234926e-05</v>
+        <v>-9.798893760572084e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.568364825448074</v>
+        <v>0.3757796934307363</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.077237613286249e-07</v>
+        <v>-1.180133366427938e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2409929582712678</v>
+        <v>0.1958088061438568</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1647550084923174</v>
+        <v>-0.1233827631192954</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1226361941039803</v>
+        <v>0.2772227494393097</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1094424626059363</v>
+        <v>0.1747566430474503</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07914214309663557</v>
+        <v>0.00846347458408438</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.19433262558218</v>
+        <v>3.143601408456903</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8764115880252156</v>
+        <v>0.68540218608651</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02224163358596193</v>
+        <v>-0.01682225949514497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01795669379080931</v>
+        <v>0.07015596357505013</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006086554344205912</v>
+        <v>-0.00589458755546486</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3325072716721018</v>
+        <v>0.3175928449331434</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4327805241509022</v>
+        <v>0.3658199029992339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6881213674828324</v>
+        <v>0.7414220893180021</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.838807729705105</v>
+        <v>0.3270611896776602</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6932043313741119</v>
+        <v>0.8762591635188152</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0005151941754629628</v>
+        <v>0.0006512567742717741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05735062600609473</v>
+        <v>0.01494274443989387</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.694271700969666</v>
+        <v>1.991099410031772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02947147963872177</v>
+        <v>0.1030671730356838</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5873853861742275</v>
+        <v>-0.9415686714075823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4356838815365042</v>
+        <v>0.1851245578519826</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.72208505837349</v>
+        <v>-1.5982895977745</v>
       </c>
       <c r="C4" t="n">
-        <v>5.90860578232785e-05</v>
+        <v>0.0001627454558476533</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.345909313147267</v>
+        <v>-1.282115882534295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002229845683186722</v>
+        <v>0.003343740408029857</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.521802572172803</v>
+        <v>-1.609586112084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004340859469339468</v>
+        <v>0.002233339035562454</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08127354521388609</v>
+        <v>0.02602275518398819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7839798550998136</v>
+        <v>0.9282900051189252</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001072152687372794</v>
+        <v>0.001002170470295079</v>
       </c>
       <c r="C8" t="n">
-        <v>4.510779444504862e-10</v>
+        <v>4.533323404310383e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01934325882874807</v>
+        <v>-0.01677484079286197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005024194506085724</v>
+        <v>0.01734722379882828</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8882527048421571</v>
+        <v>0.9845615752870482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001249533357092778</v>
+        <v>0.0004052682110514608</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.030234285389083</v>
+        <v>0.9988100810614908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003265765155518728</v>
+        <v>0.0006019163985315646</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5366849941166382</v>
+        <v>0.5035359424879496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1178777267119526</v>
+        <v>0.1597806288220962</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001007391261588081</v>
+        <v>-0.0001317468710046529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3403542237517929</v>
+        <v>0.2247259677032915</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.074519719701429e-07</v>
+        <v>-6.525905997098933e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217463383434217</v>
+        <v>0.465763567957579</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1300894062236619</v>
+        <v>-0.1457790323131748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2199843332944734</v>
+        <v>0.1685777904653972</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1404183260036622</v>
+        <v>0.1359066887561832</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02123510093935692</v>
+        <v>0.02712221451955548</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.472090175780656</v>
+        <v>1.288951086713106</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8444326067458405</v>
+        <v>0.8643746905932619</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01341150554551415</v>
+        <v>-0.009929016963739122</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1455749136483146</v>
+        <v>0.281894446285663</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003940382593649563</v>
+        <v>-0.0004793725200102507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5023694111476724</v>
+        <v>0.9345642508819416</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.09144051203223651</v>
+        <v>0.2226533188100894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9311599300792167</v>
+        <v>0.8306123067552318</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.05603316172504777</v>
+        <v>-0.6887485282733223</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9777007932058462</v>
+        <v>0.7353977647407005</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006027507362217696</v>
+        <v>0.0005351031689666172</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0210716587089838</v>
+        <v>0.04323327003757856</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.997184464620158</v>
+        <v>2.144578677633742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1011657033857791</v>
+        <v>0.08246325822970688</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9914166026121659</v>
+        <v>-1.005517352620882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1708982920458628</v>
+        <v>0.1642294486989858</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.528061714946103</v>
+        <v>-1.445740172834051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003461739613557821</v>
+        <v>0.0006287751820513697</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.280309062252827</v>
+        <v>-1.144171541408449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003490576481159633</v>
+        <v>0.008448436071828817</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.697032077556577</v>
+        <v>-1.792156360184232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00113120970933841</v>
+        <v>0.0005970813962540921</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01756645736549398</v>
+        <v>0.07008097669295234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9518414237869354</v>
+        <v>0.8107386487175573</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001118070767589556</v>
+        <v>0.0011353654518695</v>
       </c>
       <c r="C8" t="n">
-        <v>1.117152935777056e-10</v>
+        <v>5.873431967648877e-11</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01522518928499956</v>
+        <v>-0.0185597138258779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03004557913498383</v>
+        <v>0.007446198832485831</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8132274035408843</v>
+        <v>0.7509996971399185</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003472926955914086</v>
+        <v>0.006171121368707644</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999119293596616</v>
+        <v>0.9218135420783514</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006685694407613788</v>
+        <v>0.001658020823129727</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3546692269173077</v>
+        <v>0.4320035709343067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3069795887561567</v>
+        <v>0.2032910423676153</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001416706839226023</v>
+        <v>-0.0001097669273750651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2016839783877714</v>
+        <v>0.3147942751206015</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.749365260138557e-08</v>
+        <v>-4.981509231007353e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3378171273637955</v>
+        <v>0.5770543635068671</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.08173163995074599</v>
+        <v>-0.1691491386476577</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4502538731834617</v>
+        <v>0.1163613046239695</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1152703724005619</v>
+        <v>0.1305244206655957</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06293178083800836</v>
+        <v>0.03880790125441919</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.588987084073829</v>
+        <v>2.009748158815011</v>
       </c>
       <c r="C17" t="n">
-        <v>0.646282258011869</v>
+        <v>0.789605335621824</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01349443046014033</v>
+        <v>-0.01758682119042814</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1494750863596167</v>
+        <v>0.05760535745457938</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00285662626377577</v>
+        <v>0.0004080014855090707</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6253258197388677</v>
+        <v>0.9472394252025537</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6913033568063746</v>
+        <v>0.5350054779968398</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5073049287157281</v>
+        <v>0.6164879016959272</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2893981786128438</v>
+        <v>-0.4383191424580066</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8883819437497582</v>
+        <v>0.8299435935455477</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0005749008845216744</v>
+        <v>0.0004819889675413649</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03231064453367968</v>
+        <v>0.06933436627592109</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.209463881860916</v>
+        <v>2.899596024877852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0776808789085644</v>
+        <v>0.01908978330257155</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9353277700168441</v>
+        <v>-0.9668907970099783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1883490729952042</v>
+        <v>0.1791849963956914</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.363690362995189</v>
+        <v>-1.578631227114108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00137091248114515</v>
+        <v>0.0002585181669944186</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9671368799636845</v>
+        <v>-1.24301350927264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02690268534448311</v>
+        <v>0.005158713455261608</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.3768884954259</v>
+        <v>-1.876082499478784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00984306923323809</v>
+        <v>0.0003533873097970665</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08797737482591719</v>
+        <v>-0.01977534083577642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7661290697792781</v>
+        <v>0.94703642329268</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001038831842619091</v>
+        <v>0.0010614921530932</v>
       </c>
       <c r="C8" t="n">
-        <v>6.943162752896304e-10</v>
+        <v>4.591183418294408e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01474281144372271</v>
+        <v>-0.01745283197371262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02959684852369191</v>
+        <v>0.01131410630153422</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7013554395245097</v>
+        <v>0.8318294441446272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007912496278667065</v>
+        <v>0.002301144246287924</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9722965924634375</v>
+        <v>1.038254379077723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005786035704970843</v>
+        <v>0.0003168352845008396</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3503819688151796</v>
+        <v>0.4092601391874487</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3005399735328654</v>
+        <v>0.2290010446527257</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.373450160786433e-05</v>
+        <v>-0.0001058171645634919</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4406122554629913</v>
+        <v>0.3394510197173222</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.481194280869434e-08</v>
+        <v>-6.722298300313112e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3935899463732484</v>
+        <v>0.4610585188301545</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1451223755368183</v>
+        <v>-0.1642656629235547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1753718619196556</v>
+        <v>0.1220346966993756</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.129953820826644</v>
+        <v>0.1360111405698775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03631925049771931</v>
+        <v>0.02676118366451358</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.567433945497492</v>
+        <v>-2.404035767257663</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5362715819901855</v>
+        <v>0.7526328220330172</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01425514992450946</v>
+        <v>-0.01329209193273824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1248099950805367</v>
+        <v>0.1514433861968509</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002909906669033716</v>
+        <v>-0.004288864222076437</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6428546802227249</v>
+        <v>0.4688408910202122</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09737736942691026</v>
+        <v>-0.1832855092909823</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9280387620916932</v>
+        <v>0.8647906241186917</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01792027746383675</v>
+        <v>-1.089918868547423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9930906721295668</v>
+        <v>0.603959545870117</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0005016236945187824</v>
+        <v>0.0005729725585306499</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0597142187116057</v>
+        <v>0.03103930110799209</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.128918108854848</v>
+        <v>2.178095285652875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0804568593822742</v>
+        <v>0.07735898807490632</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7556118520239254</v>
+        <v>-0.8438760267191386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2990739755051841</v>
+        <v>0.2478992780623479</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.578946975944905</v>
+        <v>-1.617432611632353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002307014635910689</v>
+        <v>0.000142846394768782</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.25857163810173</v>
+        <v>-1.320489307418281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004264082756220226</v>
+        <v>0.00249748185259218</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.824413853650004</v>
+        <v>-1.407092690603103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003338608430873709</v>
+        <v>0.009121242931622059</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008734429759061264</v>
+        <v>-0.04611546055016356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9764228843017401</v>
+        <v>0.8755418424837209</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009995313508931753</v>
+        <v>0.001092409806010313</v>
       </c>
       <c r="C8" t="n">
-        <v>1.484210948109093e-09</v>
+        <v>2.80333104236044e-10</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01761428979135669</v>
+        <v>-0.01267132120471529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01234354249170298</v>
+        <v>0.06961765179096918</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7894286115287661</v>
+        <v>0.8850529159647539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003493701745119781</v>
+        <v>0.00123912007395106</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9059753401077419</v>
+        <v>0.9475172918541884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00181733232200634</v>
+        <v>0.001239751820901147</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3316004338729603</v>
+        <v>0.2689522924316408</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3402085028757821</v>
+        <v>0.4409283710964089</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.344431225531172e-05</v>
+        <v>-3.783128238642764e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7626938153617896</v>
+        <v>0.7307929240138296</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.445032157132328e-07</v>
+        <v>-1.474008447574142e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1110974327358611</v>
+        <v>0.1021178275945915</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02612592053651448</v>
+        <v>-0.1674716155531779</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8059428232029797</v>
+        <v>0.1185868891938509</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09876391702677662</v>
+        <v>0.1090963763761736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09740880225099702</v>
+        <v>0.07912441899495995</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.35521381261797</v>
+        <v>1.781542328496833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8579141955055675</v>
+        <v>0.8197716645113906</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01714694119356249</v>
+        <v>-0.01423905384419162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06919028955543451</v>
+        <v>0.1354629069789995</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002946303642568882</v>
+        <v>0.0002325487004053381</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6113599498901605</v>
+        <v>0.9700652129736521</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8987450384529728</v>
+        <v>-0.0972854882970741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3938542797693656</v>
+        <v>0.9261070372421568</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.236627460122134</v>
+        <v>1.326490313592177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3046082121227345</v>
+        <v>0.5329765428024249</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003936796970703457</v>
+        <v>0.0003898571398815965</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1424607817513497</v>
+        <v>0.1531947754767564</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.338981638347959</v>
+        <v>2.470294074890139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06331306566467788</v>
+        <v>0.04876724632254324</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8628782328016413</v>
+        <v>-1.238222341481711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2388109537274077</v>
+        <v>0.09327610118048969</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.553830026221051</v>
+        <v>-1.573613845289684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002605402493575442</v>
+        <v>0.000439660055782577</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.253040882491908</v>
+        <v>-1.330976344721692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004269817378838796</v>
+        <v>0.003639102336446934</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.533032563560632</v>
+        <v>-1.742869302602118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005211934555964358</v>
+        <v>0.001603536804519054</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0380833277721354</v>
+        <v>0.1361153591612613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8978258125668332</v>
+        <v>0.6604640440224586</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009525900911405896</v>
+        <v>0.001046090900104195</v>
       </c>
       <c r="C8" t="n">
-        <v>1.284047856472281e-08</v>
+        <v>1.446867753295286e-09</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01718363566035143</v>
+        <v>-0.01847154671797234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01380774235502087</v>
+        <v>0.01007309098870214</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8949671524611675</v>
+        <v>0.8091585234670733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001125306579007499</v>
+        <v>0.002817313413413157</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.176169655586775</v>
+        <v>0.9973903734068877</v>
       </c>
       <c r="C11" t="n">
-        <v>5.531967081251181e-05</v>
+        <v>0.0006862841958236924</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4940942709519223</v>
+        <v>0.4366616510440364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1532279436304141</v>
+        <v>0.2157095977001076</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001141797253564162</v>
+        <v>-6.280644343798359e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2922550778266271</v>
+        <v>0.5576520992588134</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.124989092479974e-08</v>
+        <v>-1.395438850824026e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3080243558566411</v>
+        <v>0.1141186960794569</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1673176609378228</v>
+        <v>-0.1081518362070578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.116855986993428</v>
+        <v>0.3078399125891539</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1335347087303733</v>
+        <v>0.1021030127256359</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03084597864605232</v>
+        <v>0.10093695843114</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.017646094132338</v>
+        <v>-1.26921718922784</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8915239919886659</v>
+        <v>0.8645337878808645</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01598104938529273</v>
+        <v>-0.01833742511010925</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08733816155276863</v>
+        <v>0.0474253518615123</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0006605533769048989</v>
+        <v>-0.00293492170552592</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9151698098129923</v>
+        <v>0.6172026334469802</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4513634474379549</v>
+        <v>0.306234231150161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6708339974604871</v>
+        <v>0.7718140068483554</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4818308897822404</v>
+        <v>0.9689758200931483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.815040697226997</v>
+        <v>0.6311630388898617</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006145217955210204</v>
+        <v>0.000617745876504495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02073966489328815</v>
+        <v>0.01878296656451707</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.217575215142566</v>
+        <v>1.926320850408461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07319098551945587</v>
+        <v>0.1124978078024224</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5753169812291542</v>
+        <v>-0.8979156853737346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4647724974000235</v>
+        <v>0.2121559583743522</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.725878936721183</v>
+        <v>-1.497911516258987</v>
       </c>
       <c r="C4" t="n">
-        <v>6.741355060560163e-05</v>
+        <v>0.0003629929901182239</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.380500964433842</v>
+        <v>-1.063749643348088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001914792205634995</v>
+        <v>0.01449513765571473</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.80955424718928</v>
+        <v>-1.661232542058096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008832812531373775</v>
+        <v>0.001970857450308096</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1000993318705728</v>
+        <v>-0.02163709420448865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7396842071218992</v>
+        <v>0.9405622650868235</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001013198945018249</v>
+        <v>0.001082497821982609</v>
       </c>
       <c r="C8" t="n">
-        <v>2.236233312351312e-09</v>
+        <v>2.857635990099033e-10</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01455932107407424</v>
+        <v>-0.0165653338568605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03640682759943855</v>
+        <v>0.01767659614985038</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9373432000272041</v>
+        <v>0.9565783060681748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007414301063246895</v>
+        <v>0.0005658298984455297</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9210588314001923</v>
+        <v>0.8976101267597042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001555943635357644</v>
+        <v>0.002051317654627296</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2691331586585448</v>
+        <v>0.3413795115798439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4376128400565689</v>
+        <v>0.3201842098995435</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001103377834259859</v>
+        <v>-7.119155558392746e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3222912602670681</v>
+        <v>0.5205855714305568</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.992622725674267e-08</v>
+        <v>-1.347001999620896e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2711955644979559</v>
+        <v>0.1341580450810677</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1232427586299729</v>
+        <v>-0.09502696094831807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2486722920708383</v>
+        <v>0.3733135225751852</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.146319703694567</v>
+        <v>0.12988791604838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02134948078472425</v>
+        <v>0.03428659324083805</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.614959919634795</v>
+        <v>-0.04461665532496147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8307851334273864</v>
+        <v>0.9952932262971608</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01513514649536796</v>
+        <v>-0.01252667272280466</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1044427380699927</v>
+        <v>0.1850704120965139</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.129887102762284e-05</v>
+        <v>-0.002282182256763336</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9882982946082176</v>
+        <v>0.6953222866174456</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4808256386741232</v>
+        <v>0.4348814034006114</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6512360674037134</v>
+        <v>0.6790879237786441</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09743961979141563</v>
+        <v>1.223033574718188</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9622247006034117</v>
+        <v>0.5648043599060273</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006219848932622529</v>
+        <v>0.0004818385483290323</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02076933296231896</v>
+        <v>0.07486298154774534</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.9245509380282</v>
+        <v>2.038126794091629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.140925057016965</v>
+        <v>0.1193409118109632</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.402703195765206</v>
+        <v>-0.8606579533725857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07615383828447568</v>
+        <v>0.2772742808030636</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.49805101514543</v>
+        <v>-1.284220356710692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002710100711305802</v>
+        <v>0.006016494247240783</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.354601318699617</v>
+        <v>-1.06041165331014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008003880548350913</v>
+        <v>0.02643796602720521</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.129300084736068</v>
+        <v>-1.970688284885907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001454399375313594</v>
+        <v>0.0003051578952148187</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1833766287370437</v>
+        <v>0.2361023748413869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.625416838763715</v>
+        <v>0.4981905491929584</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009574815042434843</v>
+        <v>0.000988272927197344</v>
       </c>
       <c r="C8" t="n">
-        <v>2.776167594181356e-08</v>
+        <v>7.216443471525593e-09</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01702057661869105</v>
+        <v>-0.02100637205029261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01708944378081728</v>
+        <v>0.002723139226022801</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.12534170453957</v>
+        <v>0.9106525651853962</v>
       </c>
       <c r="C10" t="n">
-        <v>7.875788256743852e-05</v>
+        <v>0.0009681982437368843</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.171187203618687</v>
+        <v>1.021707395720341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001033760359376241</v>
+        <v>0.0004620177505834965</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5337346949611022</v>
+        <v>0.5262702999445726</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1279578389924828</v>
+        <v>0.1307320835589011</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.585278823787391e-06</v>
+        <v>-0.0001017766618583697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9373083060020927</v>
+        <v>0.3541377952024346</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.477793967262718e-07</v>
+        <v>-8.221893066746802e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.101794342083604</v>
+        <v>0.3635855773499693</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1661866988627733</v>
+        <v>-0.1009091830523808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1272988150132311</v>
+        <v>0.3562772419508039</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1467312602051454</v>
+        <v>0.1259897472786188</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01925675928998233</v>
+        <v>0.04381690300395703</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.920311903849055</v>
+        <v>-3.770277722869705</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8026905495456282</v>
+        <v>0.6159597231375785</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01275905574634601</v>
+        <v>-0.01727060535054269</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1755941745419115</v>
+        <v>0.07039286759654843</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001074527385767209</v>
+        <v>-0.002744839508495315</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8532400697453043</v>
+        <v>0.6615442693873745</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.245394537823062</v>
+        <v>0.8982099795420203</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8171218669373512</v>
+        <v>0.4043292551333482</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.427823544913342</v>
+        <v>0.5681895850455498</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4918516853552205</v>
+        <v>0.7842528926411858</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003345905506407007</v>
+        <v>0.0005204103870390545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.207295910672217</v>
+        <v>0.04958515845897209</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Clermont.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Clermont.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.91977941239301</v>
+        <v>0.9404290080132726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02020854018698176</v>
+        <v>0.3732388581150134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8836525202627834</v>
+        <v>0.4449466083371744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2511759660377603</v>
+        <v>0.00160368977055293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.658292534450327</v>
+        <v>0.001117081680969621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001950766152178553</v>
+        <v>9.069937204042121e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.269960975940354</v>
+        <v>-0.01031789013765437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005465805644036517</v>
+        <v>0.1110531632573209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.717955301327796</v>
+        <v>0.8530802775219808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001773356918846869</v>
+        <v>0.001596347224949643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02063679444222259</v>
+        <v>0.7969301914179207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9485362906088662</v>
+        <v>0.003852587170685276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009722337068753616</v>
+        <v>0.1690115902429003</v>
       </c>
       <c r="C8" t="n">
-        <v>7.048020594797252e-09</v>
+        <v>0.6036944395787947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01529143487216724</v>
+        <v>-3.564481319665503e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02814576229057139</v>
+        <v>0.7400370604921137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9374037314912899</v>
+        <v>-1.527628107018339e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006257033175050727</v>
+        <v>0.08503310976948157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.007664095354128</v>
+        <v>-0.1210243489063397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004973160060871666</v>
+        <v>0.2504364351605758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3406214698816832</v>
+        <v>0.1266593693512693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3236299926925081</v>
+        <v>0.03161815638906833</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.26881883797294e-05</v>
+        <v>-5.33431988068194</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6936836570081111</v>
+        <v>0.4686090701485888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.507768201921867e-07</v>
+        <v>-0.01582995735807931</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09046145218923519</v>
+        <v>0.08054579641753572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.09356027058660131</v>
+        <v>-0.00606780664822239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3829752554260589</v>
+        <v>0.2999559734554842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1377436362800698</v>
+        <v>-0.5382271851522369</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02294691547305563</v>
+        <v>0.6029887070347517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.12196525336998</v>
+        <v>1.17815204384992</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4958629284127962</v>
+        <v>0.5670354240774862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01985878809752055</v>
+        <v>0.0005856879966781259</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03378864884664836</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.007309094848754527</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.227564989141302</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1303250816089186</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9021139803612203</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.600557203597112</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4437114345029356</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0006277950442059815</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01885601983404929</v>
+        <v>0.02489993150368507</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.965739131530457</v>
+        <v>0.5042504237035758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01895014120932965</v>
+        <v>0.6335254682409142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2801659687415298</v>
+        <v>0.4392059041166429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7367477483065054</v>
+        <v>0.002083981280616205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.938515504509885</v>
+        <v>0.001200049166824739</v>
       </c>
       <c r="C4" t="n">
-        <v>1.951193049142829e-05</v>
+        <v>1.869443354192847e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.677374849232944</v>
+        <v>-0.01007283540902042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002883801997917914</v>
+        <v>0.1266461574945547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.711805216210918</v>
+        <v>0.7818503237474542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001465065438236873</v>
+        <v>0.004381961709846735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.210961603071576</v>
+        <v>0.8580108377686307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4966723216900156</v>
+        <v>0.002625962824725397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001051952049913179</v>
+        <v>0.1927282121997246</v>
       </c>
       <c r="C8" t="n">
-        <v>1.842988830777967e-09</v>
+        <v>0.5607402091638571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01523942611568955</v>
+        <v>-8.656671282662227e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03251725927155604</v>
+        <v>0.4324504721106589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8509577709608712</v>
+        <v>-1.205537541346131e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00235849425649131</v>
+        <v>0.1843024038071704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.005539855621983</v>
+        <v>-0.1710800700455802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007781230081573885</v>
+        <v>0.1224049340100022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3172386620128906</v>
+        <v>0.1693641041210587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3687187912908578</v>
+        <v>0.008883755124107865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.798893760572084e-05</v>
+        <v>2.944874930342434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3757796934307363</v>
+        <v>0.6958636773018703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.180133366427938e-07</v>
+        <v>-0.01324653543788266</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1958088061438568</v>
+        <v>0.1393757535002409</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1233827631192954</v>
+        <v>-0.004751716825874189</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2772227494393097</v>
+        <v>0.399527053404322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1747566430474503</v>
+        <v>-0.4191560334880163</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00846347458408438</v>
+        <v>0.6928684754555989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.143601408456903</v>
+        <v>-0.1229137220594189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.68540218608651</v>
+        <v>0.952728455017644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01682225949514497</v>
+        <v>0.0005990993957042603</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07015596357505013</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.00589458755546486</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3175928449331434</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.3658199029992339</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7414220893180021</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.3270611896776602</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8762591635188152</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0006512567742717741</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01494274443989387</v>
+        <v>0.02305732264031827</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.991099410031772</v>
+        <v>0.1882185457815718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1030671730356838</v>
+        <v>0.8583683259705621</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9415686714075823</v>
+        <v>0.3875525431915406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1851245578519826</v>
+        <v>0.003577265887598092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.5982895977745</v>
+        <v>0.001149723459102498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001627454558476533</v>
+        <v>4.818617299927534e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.282115882534295</v>
+        <v>-0.01154197529878578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003343740408029857</v>
+        <v>0.07793235720471459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.609586112084</v>
+        <v>0.9036030968539462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002233339035562454</v>
+        <v>0.001013082380521447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02602275518398819</v>
+        <v>0.8038476532510591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9282900051189252</v>
+        <v>0.003681626310694192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001002170470295079</v>
+        <v>0.3031379912014852</v>
       </c>
       <c r="C8" t="n">
-        <v>4.533323404310383e-09</v>
+        <v>0.3654604360303543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01677484079286197</v>
+        <v>-0.0001096653225442285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01734722379882828</v>
+        <v>0.3060394450978642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9845615752870482</v>
+        <v>-8.326911800219775e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004052682110514608</v>
+        <v>0.3470378875014086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9988100810614908</v>
+        <v>-0.159550706344542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006019163985315646</v>
+        <v>0.1245312764907482</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5035359424879496</v>
+        <v>0.1263092785149793</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1597806288220962</v>
+        <v>0.03418197768813115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001317468710046529</v>
+        <v>1.575440386749494</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2247259677032915</v>
+        <v>0.8311488875640747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.525905997098933e-08</v>
+        <v>-0.00681027888757379</v>
       </c>
       <c r="C14" t="n">
-        <v>0.465763567957579</v>
+        <v>0.4467475387116718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1457790323131748</v>
+        <v>-5.749778262411517e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1685777904653972</v>
+        <v>0.9919346919476414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1359066887561832</v>
+        <v>-0.5238628907045138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02712221451955548</v>
+        <v>0.6033709335033226</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.288951086713106</v>
+        <v>-0.9259958946616766</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8643746905932619</v>
+        <v>0.645408488543167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009929016963739122</v>
+        <v>0.0004845068529911621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.281894446285663</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0004793725200102507</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9345642508819416</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.2226533188100894</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8306123067552318</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.6887485282733223</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7353977647407005</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0005351031689666172</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.04323327003757856</v>
+        <v>0.06079968745441737</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.144578677633742</v>
+        <v>0.5260537402403472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08246325822970688</v>
+        <v>0.6225819772040184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.005517352620882</v>
+        <v>0.3483836225053999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1642294486989858</v>
+        <v>0.008259007863769064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.445740172834051</v>
+        <v>0.0012507319463361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006287751820513697</v>
+        <v>1.461598513978897e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.144171541408449</v>
+        <v>-0.01286948543618063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008448436071828817</v>
+        <v>0.04448198027592473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.792156360184232</v>
+        <v>0.699783968303375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005970813962540921</v>
+        <v>0.009497823990886469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07008097669295234</v>
+        <v>0.7020671529499557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8107386487175573</v>
+        <v>0.01142965825279782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0011353654518695</v>
+        <v>0.2504064755240011</v>
       </c>
       <c r="C8" t="n">
-        <v>5.873431967648877e-11</v>
+        <v>0.4344749913052388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0185597138258779</v>
+        <v>-9.405628355827244e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007446198832485831</v>
+        <v>0.3847479823095002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7509996971399185</v>
+        <v>-6.660759600382975e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006171121368707644</v>
+        <v>0.4532341595212898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9218135420783514</v>
+        <v>-0.1901096660679829</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001658020823129727</v>
+        <v>0.07211716273220029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4320035709343067</v>
+        <v>0.1220052749462368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2032910423676153</v>
+        <v>0.04663855298952106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001097669273750651</v>
+        <v>2.037256989031157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3147942751206015</v>
+        <v>0.7816846487306308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.981509231007353e-08</v>
+        <v>-0.01336414913500001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5770543635068671</v>
+        <v>0.1375037547333941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1691491386476577</v>
+        <v>0.0009275453904557961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1163613046239695</v>
+        <v>0.8781889945195217</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1305244206655957</v>
+        <v>-0.1911036332172869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03880790125441919</v>
+        <v>0.853473257845291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.009748158815011</v>
+        <v>-0.7699404697151996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.789605335621824</v>
+        <v>0.7010288535004968</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01758682119042814</v>
+        <v>0.0004409498301760447</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05760535745457938</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0004080014855090707</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9472394252025537</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5350054779968398</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6164879016959272</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4383191424580066</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8299435935455477</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0004819889675413649</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.06933436627592109</v>
+        <v>0.09162017979741993</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.899596024877852</v>
+        <v>1.0510236872876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01908978330257155</v>
+        <v>0.3167923123656994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9668907970099783</v>
+        <v>0.3076522726555996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1791849963956914</v>
+        <v>0.01751374866251176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.578631227114108</v>
+        <v>0.001201768284486453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002585181669944186</v>
+        <v>3.754563863710363e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.24301350927264</v>
+        <v>-0.01158317748306061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005158713455261608</v>
+        <v>0.07079863860696109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.876082499478784</v>
+        <v>0.779198364344157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003533873097970665</v>
+        <v>0.0037634671604288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01977534083577642</v>
+        <v>0.821927686567574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.94703642329268</v>
+        <v>0.002683526723535877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0010614921530932</v>
+        <v>0.2286362807166837</v>
       </c>
       <c r="C8" t="n">
-        <v>4.591183418294408e-10</v>
+        <v>0.4756833603689545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01745283197371262</v>
+        <v>-9.172838303961646e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01131410630153422</v>
+        <v>0.4045765914062346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8318294441446272</v>
+        <v>-7.824243366365586e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002301144246287924</v>
+        <v>0.3874820644051294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.038254379077723</v>
+        <v>-0.1898835443374826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003168352845008396</v>
+        <v>0.06858446227212943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4092601391874487</v>
+        <v>0.1331546460766506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2290010446527257</v>
+        <v>0.02642924640187299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001058171645634919</v>
+        <v>-2.305959787643878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3394510197173222</v>
+        <v>0.7549123082655806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.722298300313112e-08</v>
+        <v>-0.009664152984144176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4610585188301545</v>
+        <v>0.2823911913228233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1642656629235547</v>
+        <v>-0.003540496956354489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1220346966993756</v>
+        <v>0.5406412636428476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1360111405698775</v>
+        <v>-0.8574383623728469</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02676118366451358</v>
+        <v>0.4135470010376491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.404035767257663</v>
+        <v>-1.494092812610012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7526328220330172</v>
+        <v>0.4735766038181795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01329209193273824</v>
+        <v>0.000541535434434245</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1514433861968509</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.004288864222076437</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4688408910202122</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.1832855092909823</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8647906241186917</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-1.089918868547423</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.603959545870117</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0005729725585306499</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.03103930110799209</v>
+        <v>0.03859306877778784</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.178095285652875</v>
+        <v>0.3350930551080521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07735898807490632</v>
+        <v>0.7551501547101992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8438760267191386</v>
+        <v>0.3607344899893487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2478992780623479</v>
+        <v>0.006175664505811889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.617432611632353</v>
+        <v>0.001219215844041318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000142846394768782</v>
+        <v>5.246922251403114e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.320489307418281</v>
+        <v>-0.007758229402517735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00249748185259218</v>
+        <v>0.2326792224367816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.407092690603103</v>
+        <v>0.8219369010950092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009121242931622059</v>
+        <v>0.002435812187510203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04611546055016356</v>
+        <v>0.7539644809725491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8755418424837209</v>
+        <v>0.007192397861690566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001092409806010313</v>
+        <v>0.1002205043239267</v>
       </c>
       <c r="C8" t="n">
-        <v>2.80333104236044e-10</v>
+        <v>0.7597507740034437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01267132120471529</v>
+        <v>-3.673821470810994e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06961765179096918</v>
+        <v>0.7377539051486185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8850529159647539</v>
+        <v>-1.494291747788987e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00123912007395106</v>
+        <v>0.09789313248086846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9475172918541884</v>
+        <v>-0.1871386966489061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001239751820901147</v>
+        <v>0.07464942986609888</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2689522924316408</v>
+        <v>0.1014881245898372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4409283710964089</v>
+        <v>0.09315896500819758</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.783128238642764e-05</v>
+        <v>1.546745349892198</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7307929240138296</v>
+        <v>0.8393216372698553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.474008447574142e-07</v>
+        <v>-0.01117408722795841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1021178275945915</v>
+        <v>0.2275301378984232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1674716155531779</v>
+        <v>0.0009837071006118289</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1185868891938509</v>
+        <v>0.8713755333353599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1090963763761736</v>
+        <v>-0.7361759580550986</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07912441899495995</v>
+        <v>0.4703149648582328</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.781542328496833</v>
+        <v>0.8330775999040676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8197716645113906</v>
+        <v>0.6940188958104536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01423905384419162</v>
+        <v>0.0003759840673534669</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1354629069789995</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0002325487004053381</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9700652129736521</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.0972854882970741</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9261070372421568</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.326490313592177</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5329765428024249</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0003898571398815965</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1531947754767564</v>
+        <v>0.162303773739347</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.470294074890139</v>
+        <v>0.4052079700009107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04876724632254324</v>
+        <v>0.698202246795113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.238222341481711</v>
+        <v>0.4724016958377795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09327610118048969</v>
+        <v>0.001287827162626089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.573613845289684</v>
+        <v>0.001195115567860964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000439660055782577</v>
+        <v>1.541040390627106e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.330976344721692</v>
+        <v>-0.01192524938690193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003639102336446934</v>
+        <v>0.07072455486143307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.742869302602118</v>
+        <v>0.7440922317377565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001603536804519054</v>
+        <v>0.005280712063403946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1361153591612613</v>
+        <v>0.7680420412181886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6604640440224586</v>
+        <v>0.00566102169452018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001046090900104195</v>
+        <v>0.2260639565109459</v>
       </c>
       <c r="C8" t="n">
-        <v>1.446867753295286e-09</v>
+        <v>0.4912805807031143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01847154671797234</v>
+        <v>-4.187972040210502e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01007309098870214</v>
+        <v>0.6941742435983433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8091585234670733</v>
+        <v>-1.60752706190377e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002817313413413157</v>
+        <v>0.06783192720167212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9973903734068877</v>
+        <v>-0.1276486516337567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006862841958236924</v>
+        <v>0.2197297810763137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4366616510440364</v>
+        <v>0.09715387189040518</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2157095977001076</v>
+        <v>0.1077073359223921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.280644343798359e-05</v>
+        <v>-0.9226902293636786</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5576520992588134</v>
+        <v>0.8992186814942784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.395438850824026e-07</v>
+        <v>-0.01354652701104446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1141186960794569</v>
+        <v>0.129572207337181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1081518362070578</v>
+        <v>-0.001566080007835658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3078399125891539</v>
+        <v>0.7827731660348376</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1021030127256359</v>
+        <v>-0.3481927250148217</v>
       </c>
       <c r="C16" t="n">
-        <v>0.10093695843114</v>
+        <v>0.7340302791401223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.26921718922784</v>
+        <v>0.7223227688462097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8645337878808645</v>
+        <v>0.7175154815878931</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01833742511010925</v>
+        <v>0.0005623610461512336</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0474253518615123</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.00293492170552592</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6172026334469802</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.306234231150161</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7718140068483554</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9689758200931483</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6311630388898617</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.000617745876504495</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01878296656451707</v>
+        <v>0.02983366601269604</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +2265,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.926320850408461</v>
+        <v>0.3201103057099346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1124978078024224</v>
+        <v>0.7575956175322934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8979156853737346</v>
+        <v>0.2775965995692283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2121559583743522</v>
+        <v>0.03189188200302918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.497911516258987</v>
+        <v>0.001220725737717428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003629929901182239</v>
+        <v>3.854001285628727e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.063749643348088</v>
+        <v>-0.01252994349750206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01449513765571473</v>
+        <v>0.05420782696395408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.661232542058096</v>
+        <v>0.9065325821908571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001970857450308096</v>
+        <v>0.0009076075064788612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02163709420448865</v>
+        <v>0.6956407718394551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9405622650868235</v>
+        <v>0.01168361887814837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001082497821982609</v>
+        <v>0.2213448063433325</v>
       </c>
       <c r="C8" t="n">
-        <v>2.857635990099033e-10</v>
+        <v>0.495272517377616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0165653338568605</v>
+        <v>-6.659255579630881e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01767659614985038</v>
+        <v>0.5456505910671288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9565783060681748</v>
+        <v>-1.355144700112016e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005658298984455297</v>
+        <v>0.1312812904491249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8976101267597042</v>
+        <v>-0.1101407081919202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002051317654627296</v>
+        <v>0.29213079369107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3413795115798439</v>
+        <v>0.1179068838088252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3201842098995435</v>
+        <v>0.0485187576081957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.119155558392746e-05</v>
+        <v>0.2611046470208709</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5205855714305568</v>
+        <v>0.9718449763811162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.347001999620896e-07</v>
+        <v>-0.008544572406012176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1341580450810677</v>
+        <v>0.3524129414408212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.09502696094831807</v>
+        <v>-0.001518717492646287</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3733135225751852</v>
+        <v>0.7893243104433735</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.12988791604838</v>
+        <v>-0.2462642836469945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03428659324083805</v>
+        <v>0.8091922954686397</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04461665532496147</v>
+        <v>0.7220472904802032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9952932262971608</v>
+        <v>0.7310500817370755</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01252667272280466</v>
+        <v>0.0004326012069100356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1850704120965139</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.002282182256763336</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6953222866174456</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.4348814034006114</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6790879237786441</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.223033574718188</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5648043599060273</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0004818385483290323</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.07486298154774534</v>
+        <v>0.104057457502516</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2522,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.038126794091629</v>
+        <v>0.5025512278253498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1193409118109632</v>
+        <v>0.6465166959733633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8606579533725857</v>
+        <v>0.5360446380284296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2772742808030636</v>
+        <v>0.0004086950392934976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.284220356710692</v>
+        <v>0.001098918574457533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006016494247240783</v>
+        <v>5.024251795389842e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.06041165331014</v>
+        <v>-0.01608484005498591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02643796602720521</v>
+        <v>0.01458547354373276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.970688284885907</v>
+        <v>0.8708626405106441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003051578952148187</v>
+        <v>0.001367075453691381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2361023748413869</v>
+        <v>0.8106223534102627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4981905491929584</v>
+        <v>0.003605570636140668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000988272927197344</v>
+        <v>0.3715365974844985</v>
       </c>
       <c r="C8" t="n">
-        <v>7.216443471525593e-09</v>
+        <v>0.2617298707536643</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02100637205029261</v>
+        <v>-8.741894785179981e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002723139226022801</v>
+        <v>0.4221484429624269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9106525651853962</v>
+        <v>-8.711879198001762e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009681982437368843</v>
+        <v>0.3331475243380217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.021707395720341</v>
+        <v>-0.1377756388766676</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004620177505834965</v>
+        <v>0.1988747586708906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5262702999445726</v>
+        <v>0.126050808491436</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1307320835589011</v>
+        <v>0.03951189035922838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001017766618583697</v>
+        <v>-3.631275774526143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3541377952024346</v>
+        <v>0.6196995974671896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.221893066746802e-08</v>
+        <v>-0.0140062181773631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3635855773499693</v>
+        <v>0.1328976255926032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1009091830523808</v>
+        <v>-0.001530764668538546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3562772419508039</v>
+        <v>0.8030309481438634</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1259897472786188</v>
+        <v>0.1482689912035913</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04381690300395703</v>
+        <v>0.8875157200612037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.770277722869705</v>
+        <v>0.2296774612588644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6159597231375785</v>
+        <v>0.9109195839243389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01727060535054269</v>
+        <v>0.0004781548199963127</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07039286759654843</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.002744839508495315</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6615442693873745</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8982099795420203</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4043292551333482</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5681895850455498</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7842528926411858</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0005204103870390545</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.04958515845897209</v>
+        <v>0.0679332462127105</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Clermont.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Clermont.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9404290080132726</v>
+        <v>0.4513152629075538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3732388581150134</v>
+        <v>0.6627350586399574</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4449466083371744</v>
+        <v>0.4434035489216678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00160368977055293</v>
+        <v>0.001695411482907627</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001117081680969621</v>
+        <v>0.001102214394697287</v>
       </c>
       <c r="C4" t="n">
-        <v>9.069937204042121e-12</v>
+        <v>1.600332418935144e-11</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01031789013765437</v>
+        <v>-0.01082980117707926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1110531632573209</v>
+        <v>0.09318874141028091</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8530802775219808</v>
+        <v>0.8490317438680921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001596347224949643</v>
+        <v>0.001458033055723916</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7969301914179207</v>
+        <v>0.7607083454823486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003852587170685276</v>
+        <v>0.005579438765490297</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1690115902429003</v>
+        <v>0.1610335136674903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6036944395787947</v>
+        <v>0.6216203929088012</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.564481319665503e-05</v>
+        <v>0.0151239933894855</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7400370604921137</v>
+        <v>0.1029046847390442</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.527628107018339e-07</v>
+        <v>-0.2320037037747957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08503310976948157</v>
+        <v>0.004906044298667258</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1210243489063397</v>
+        <v>-0.1372177720009634</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2504364351605758</v>
+        <v>0.208174346809785</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1266593693512693</v>
+        <v>0.09241038896412607</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03161815638906833</v>
+        <v>0.1067654691505174</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.33431988068194</v>
+        <v>-0.03644489394625171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4686090701485888</v>
+        <v>0.6309120487538644</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01582995735807931</v>
+        <v>-0.01057737414207147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08054579641753572</v>
+        <v>0.2382865407954032</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00606780664822239</v>
+        <v>-0.001778932353225626</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2999559734554842</v>
+        <v>0.7658028943449466</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.5382271851522369</v>
+        <v>-0.011806166853347</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6029887070347517</v>
+        <v>0.2520460056194737</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.17815204384992</v>
+        <v>0.04022484810958445</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5670354240774862</v>
+        <v>0.04338652691564729</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005856879966781259</v>
+        <v>-0.0233745550009999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02489993150368507</v>
+        <v>0.6270608988968654</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5042504237035758</v>
+        <v>-0.002033032553477154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6335254682409142</v>
+        <v>0.998430733412323</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4392059041166429</v>
+        <v>0.4384352357692827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002083981280616205</v>
+        <v>0.002022106752310856</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001200049166824739</v>
+        <v>0.001173413745940857</v>
       </c>
       <c r="C4" t="n">
-        <v>1.869443354192847e-12</v>
+        <v>4.690178854384558e-12</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01007283540902042</v>
+        <v>-0.01037431456943216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1266461574945547</v>
+        <v>0.114222726794031</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7818503237474542</v>
+        <v>0.7839787506928109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004381961709846735</v>
+        <v>0.003850640799834023</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8580108377686307</v>
+        <v>0.8235959370932561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002625962824725397</v>
+        <v>0.003715815522852933</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1927282121997246</v>
+        <v>0.1972649852361687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5607402091638571</v>
+        <v>0.5526151608265302</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.656671282662227e-05</v>
+        <v>0.01213717291060594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4324504721106589</v>
+        <v>0.2026460413770872</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.205537541346131e-07</v>
+        <v>-0.2038619910101411</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1843024038071704</v>
+        <v>0.01548544281741833</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1710800700455802</v>
+        <v>-0.1948093335462025</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1224049340100022</v>
+        <v>0.09025220016744057</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1693641041210587</v>
+        <v>0.1352342035977047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008883755124107865</v>
+        <v>0.03085253029113142</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.944874930342434</v>
+        <v>0.05247702797079159</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6958636773018703</v>
+        <v>0.5039413838524829</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01324653543788266</v>
+        <v>-0.008118391379578526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1393757535002409</v>
+        <v>0.3607266037156983</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.004751716825874189</v>
+        <v>-0.0002398204135537442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.399527053404322</v>
+        <v>0.966738727215081</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4191560334880163</v>
+        <v>-0.01125690145059451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6928684754555989</v>
+        <v>0.2883980034587186</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1229137220594189</v>
+        <v>0.02897490786451813</v>
       </c>
       <c r="C17" t="n">
-        <v>0.952728455017644</v>
+        <v>0.1504087162998196</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005990993957042603</v>
+        <v>-0.035308033749629</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02305732264031827</v>
+        <v>0.4726127058678091</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1882185457815718</v>
+        <v>-0.2315717885782905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8583683259705621</v>
+        <v>0.8223045761506644</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3875525431915406</v>
+        <v>0.3854652333394262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003577265887598092</v>
+        <v>0.003769705255536225</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001149723459102498</v>
+        <v>0.00114004517030136</v>
       </c>
       <c r="C4" t="n">
-        <v>4.818617299927534e-12</v>
+        <v>7.772671131107158e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01154197529878578</v>
+        <v>-0.01177141913895651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07793235720471459</v>
+        <v>0.07182297569446341</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9036030968539462</v>
+        <v>0.8996184093522487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001013082380521447</v>
+        <v>0.000962259422054559</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8038476532510591</v>
+        <v>0.7723376277018785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003681626310694192</v>
+        <v>0.005122251143896111</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3031379912014852</v>
+        <v>0.284934003873879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3654604360303543</v>
+        <v>0.3957007523762194</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001096653225442285</v>
+        <v>0.003873035959688391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3060394450978642</v>
+        <v>0.6705224743854903</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.326911800219775e-08</v>
+        <v>-0.1479044164613991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3470378875014086</v>
+        <v>0.07088942063202333</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.159550706344542</v>
+        <v>-0.1706458458068739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1245312764907482</v>
+        <v>0.1138493095964539</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1263092785149793</v>
+        <v>0.1005122038418445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03418197768813115</v>
+        <v>0.08382692855998967</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.575440386749494</v>
+        <v>0.03347091313939463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8311488875640747</v>
+        <v>0.6588438121737614</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00681027888757379</v>
+        <v>-0.001984196809205976</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4467475387116718</v>
+        <v>0.8199593512739015</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.749778262411517e-05</v>
+        <v>0.003353143266154137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9919346919476414</v>
+        <v>0.5617747039651591</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.5238628907045138</v>
+        <v>-0.0106156349612994</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6033709335033226</v>
+        <v>0.2923892394128006</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.9259958946616766</v>
+        <v>0.01223933733044045</v>
       </c>
       <c r="C17" t="n">
-        <v>0.645408488543167</v>
+        <v>0.5153269744594029</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004845068529911621</v>
+        <v>-0.01480725347538056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06079968745441737</v>
+        <v>0.7500083783334623</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5260537402403472</v>
+        <v>0.1482308492711126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6225819772040184</v>
+        <v>0.8875126648056064</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3483836225053999</v>
+        <v>0.3505775200801203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008259007863769064</v>
+        <v>0.008031835344594609</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0012507319463361</v>
+        <v>0.001245074642280089</v>
       </c>
       <c r="C4" t="n">
-        <v>1.461598513978897e-13</v>
+        <v>1.923554309364166e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01286948543618063</v>
+        <v>-0.01311544461096965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04448198027592473</v>
+        <v>0.04002068872595416</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.699783968303375</v>
+        <v>0.7018751626304836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009497823990886469</v>
+        <v>0.008816638104678949</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7020671529499557</v>
+        <v>0.6746822053584299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01142965825279782</v>
+        <v>0.01474208813583508</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2504064755240011</v>
+        <v>0.2447679440242366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4344749913052388</v>
+        <v>0.4453687820814429</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.405628355827244e-05</v>
+        <v>0.003117937002350026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3847479823095002</v>
+        <v>0.7287640652058762</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.660759600382975e-08</v>
+        <v>-0.1255772136973482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4532341595212898</v>
+        <v>0.125813030433904</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1901096660679829</v>
+        <v>-0.1932767431632329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07211716273220029</v>
+        <v>0.07782169498867407</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1220052749462368</v>
+        <v>0.1003713902843806</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04663855298952106</v>
+        <v>0.09238598627922823</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.037256989031157</v>
+        <v>0.03052711628262837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7816846487306308</v>
+        <v>0.6839328855032354</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01336414913500001</v>
+        <v>-0.009068155014801847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1375037547333941</v>
+        <v>0.2993257646316168</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0009275453904557961</v>
+        <v>0.003694832835477678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8781889945195217</v>
+        <v>0.5487542446114819</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1911036332172869</v>
+        <v>-0.006426782588113539</v>
       </c>
       <c r="C16" t="n">
-        <v>0.853473257845291</v>
+        <v>0.5322113690149644</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7699404697151996</v>
+        <v>0.0099176804105451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7010288535004968</v>
+        <v>0.5929778452348013</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004409498301760447</v>
+        <v>-0.0006446704251624241</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09162017979741993</v>
+        <v>0.9890390314326826</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.0510236872876</v>
+        <v>0.587049528144532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3167923123656994</v>
+        <v>0.5661892076868449</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3076522726555996</v>
+        <v>0.3039328560223639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01751374866251176</v>
+        <v>0.01901401319854207</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001201768284486453</v>
+        <v>0.001193297461728757</v>
       </c>
       <c r="C4" t="n">
-        <v>3.754563863710363e-13</v>
+        <v>5.252960785692658e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01158317748306061</v>
+        <v>-0.0117436529071272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07079863860696109</v>
+        <v>0.0659531187649124</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.779198364344157</v>
+        <v>0.7747496134175988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0037634671604288</v>
+        <v>0.003667443064526695</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.821927686567574</v>
+        <v>0.7941843320731513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002683526723535877</v>
+        <v>0.003581093596608615</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2286362807166837</v>
+        <v>0.2195593188396442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4756833603689545</v>
+        <v>0.4928471450783146</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.172838303961646e-05</v>
+        <v>0.006347027981145329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4045765914062346</v>
+        <v>0.4877126704552206</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-7.824243366365586e-08</v>
+        <v>-0.1566798428083003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3874820644051294</v>
+        <v>0.05610477028839866</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1898835443374826</v>
+        <v>-0.1884861631548191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06858446227212943</v>
+        <v>0.08049179228746174</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1331546460766506</v>
+        <v>0.1071438958687872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02642924640187299</v>
+        <v>0.06480930419205989</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.305959787643878</v>
+        <v>-0.005185430770853634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7549123082655806</v>
+        <v>0.9448105722797662</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009664152984144176</v>
+        <v>-0.004759873756735646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2823911913228233</v>
+        <v>0.5863173554341143</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003540496956354489</v>
+        <v>-0.0003892513409123127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5406412636428476</v>
+        <v>0.9469443302278414</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.8574383623728469</v>
+        <v>-0.01380422230472671</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4135470010376491</v>
+        <v>0.1861196289042829</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.494092812610012</v>
+        <v>0.008047828919973674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4735766038181795</v>
+        <v>0.6734258722059743</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000541535434434245</v>
+        <v>0.001224199358890769</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03859306877778784</v>
+        <v>0.979280518080074</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3350930551080521</v>
+        <v>0.01195673855010627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7551501547101992</v>
+        <v>0.9909557511252369</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3607344899893487</v>
+        <v>0.3616142360975467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006175664505811889</v>
+        <v>0.006085158068273126</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001219215844041318</v>
+        <v>0.001206507388230034</v>
       </c>
       <c r="C4" t="n">
-        <v>5.246922251403114e-13</v>
+        <v>8.884230177624003e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007758229402517735</v>
+        <v>-0.007878042819847931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2326792224367816</v>
+        <v>0.2242870217425699</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8219369010950092</v>
+        <v>0.8243583766590937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002435812187510203</v>
+        <v>0.002215941958113932</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7539644809725491</v>
+        <v>0.7350101742302512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007192397861690566</v>
+        <v>0.008555476053583071</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1002205043239267</v>
+        <v>0.09271529408240613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7597507740034437</v>
+        <v>0.7773470911966385</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.673821470810994e-05</v>
+        <v>0.008689950197468788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7377539051486185</v>
+        <v>0.3501127179684441</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.494291747788987e-07</v>
+        <v>-0.2020982188856077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09789313248086846</v>
+        <v>0.01497603559850183</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1871386966489061</v>
+        <v>-0.1946162290853299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07464942986609888</v>
+        <v>0.07402119684689308</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1014881245898372</v>
+        <v>0.0782334108076697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09315896500819758</v>
+        <v>0.1843365571110641</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.546745349892198</v>
+        <v>0.03259007935056096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8393216372698553</v>
+        <v>0.6764690647904772</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01117408722795841</v>
+        <v>-0.007991656854296288</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2275301378984232</v>
+        <v>0.3822175857013235</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0009837071006118289</v>
+        <v>0.003691769468601934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8713755333353599</v>
+        <v>0.5518148576372088</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.7361759580550986</v>
+        <v>-0.01154856551195392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4703149648582328</v>
+        <v>0.2595023587795037</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8330775999040676</v>
+        <v>0.02698291338001972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6940188958104536</v>
+        <v>0.1766805535189353</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0003759840673534669</v>
+        <v>-0.01788610514103458</v>
       </c>
       <c r="C18" t="n">
-        <v>0.162303773739347</v>
+        <v>0.7119003312728729</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4052079700009107</v>
+        <v>-0.03060576465124651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.698202246795113</v>
+        <v>0.9760815922973983</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4724016958377795</v>
+        <v>0.4610260046749075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001287827162626089</v>
+        <v>0.001671042695120117</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001195115567860964</v>
+        <v>0.001189720527470693</v>
       </c>
       <c r="C4" t="n">
-        <v>1.541040390627106e-12</v>
+        <v>1.817854362505759e-12</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01192524938690193</v>
+        <v>-0.01216303007052925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07072455486143307</v>
+        <v>0.06457792024174805</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7440922317377565</v>
+        <v>0.7413101899698827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005280712063403946</v>
+        <v>0.005088287119027651</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7680420412181886</v>
+        <v>0.7417254190830643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00566102169452018</v>
+        <v>0.007299852406411197</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2260639565109459</v>
+        <v>0.2129829406595903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4912805807031143</v>
+        <v>0.5172844008143576</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.187972040210502e-05</v>
+        <v>0.009537886843636854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6941742435983433</v>
+        <v>0.28951961404281</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.60752706190377e-07</v>
+        <v>-0.2355634539346726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06783192720167212</v>
+        <v>0.004022401372741504</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1276486516337567</v>
+        <v>-0.1180025536827022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2197297810763137</v>
+        <v>0.2727009378785994</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09715387189040518</v>
+        <v>0.07414321106444341</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1077073359223921</v>
+        <v>0.2045859389335762</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.9226902293636786</v>
+        <v>0.005491397092515807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8992186814942784</v>
+        <v>0.9409861570058854</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01354652701104446</v>
+        <v>-0.008489113215283652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.129572207337181</v>
+        <v>0.3296591989201152</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001566080007835658</v>
+        <v>0.001057236998821679</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7827731660348376</v>
+        <v>0.8531560214331111</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3481927250148217</v>
+        <v>-0.007629445888581633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7340302791401223</v>
+        <v>0.4555412685867368</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7223227688462097</v>
+        <v>0.02657260340652455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7175154815878931</v>
+        <v>0.1563144248393459</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005623610461512336</v>
+        <v>0.02075832114641207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02983366601269604</v>
+        <v>0.6554293012270678</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3201103057099346</v>
+        <v>-0.008966073797697859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7575956175322934</v>
+        <v>0.9929516747223803</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2775965995692283</v>
+        <v>0.2715902531095065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03189188200302918</v>
+        <v>0.03628769837112159</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001220725737717428</v>
+        <v>0.001213947744337811</v>
       </c>
       <c r="C4" t="n">
-        <v>3.854001285628727e-13</v>
+        <v>5.343368399457702e-13</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01252994349750206</v>
+        <v>-0.01247094711800803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05420782696395408</v>
+        <v>0.0546252661211769</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9065325821908571</v>
+        <v>0.9038724428528251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009076075064788612</v>
+        <v>0.0008769867038507155</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6956407718394551</v>
+        <v>0.6679207764585432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01168361887814837</v>
+        <v>0.01504912160983122</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2213448063433325</v>
+        <v>0.1936553042219398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.495272517377616</v>
+        <v>0.5506185006103845</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.659255579630881e-05</v>
+        <v>0.005753232241025532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5456505910671288</v>
+        <v>0.5327612697549129</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.355144700112016e-07</v>
+        <v>-0.1980191971418138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1312812904491249</v>
+        <v>0.01561969253676965</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1101407081919202</v>
+        <v>-0.1090781929968781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29213079369107</v>
+        <v>0.3135916433801628</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1179068838088252</v>
+        <v>0.09553739068097483</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0485187576081957</v>
+        <v>0.09930484268718077</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2611046470208709</v>
+        <v>0.01202124387279294</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9718449763811162</v>
+        <v>0.8735976182309415</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.008544572406012176</v>
+        <v>-0.004709959968065343</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3524129414408212</v>
+        <v>0.6007669675737797</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001518717492646287</v>
+        <v>0.0008211475649534927</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7893243104433735</v>
+        <v>0.8860071525936036</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2462642836469945</v>
+        <v>-0.006699819496994121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8091922954686397</v>
+        <v>0.5086482095050147</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7220472904802032</v>
+        <v>0.0261852090761181</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7310500817370755</v>
+        <v>0.1800007162881199</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004326012069100356</v>
+        <v>0.0005871727065737331</v>
       </c>
       <c r="C18" t="n">
-        <v>0.104057457502516</v>
+        <v>0.9900879474897937</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5025512278253498</v>
+        <v>0.06011261120046325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6465166959733633</v>
+        <v>0.9551195820516123</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5360446380284296</v>
+        <v>0.5262238615856283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004086950392934976</v>
+        <v>0.0004981267373299098</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001098918574457533</v>
+        <v>0.001093650390764238</v>
       </c>
       <c r="C4" t="n">
-        <v>5.024251795389842e-11</v>
+        <v>6.220389288133561e-11</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01608484005498591</v>
+        <v>-0.01623479460660979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01458547354373276</v>
+        <v>0.01333884943860277</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8708626405106441</v>
+        <v>0.8578930147958335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001367075453691381</v>
+        <v>0.00145495985885818</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8106223534102627</v>
+        <v>0.788734976374953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003605570636140668</v>
+        <v>0.004465654315713882</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3715365974844985</v>
+        <v>0.3665403340170008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2617298707536643</v>
+        <v>0.2685556663591449</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.741894785179981e-05</v>
+        <v>0.004197033935092193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4221484429624269</v>
+        <v>0.6454877608544138</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.711879198001762e-08</v>
+        <v>-0.1565938585017387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3331475243380217</v>
+        <v>0.05568897902581718</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1377756388766676</v>
+        <v>-0.1341042299213269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1988747586708906</v>
+        <v>0.2297175930574552</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.126050808491436</v>
+        <v>0.1027668966533698</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03951189035922838</v>
+        <v>0.08275079954533347</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.631275774526143</v>
+        <v>-0.02780962549748587</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6196995974671896</v>
+        <v>0.7081568119950421</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0140062181773631</v>
+        <v>-0.008942545247296941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1328976255926032</v>
+        <v>0.3197591528636952</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001530764668538546</v>
+        <v>0.001371002318926448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8030309481438634</v>
+        <v>0.8263697213078056</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1482689912035913</v>
+        <v>-0.002807350145654653</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8875157200612037</v>
+        <v>0.7877730024126953</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2296774612588644</v>
+        <v>0.0212912441492413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9109195839243389</v>
+        <v>0.2605490462565987</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004781548199963127</v>
+        <v>0.007868093351776927</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0679332462127105</v>
+        <v>0.8701226832493076</v>
       </c>
     </row>
   </sheetData>
